--- a/fia/20210706/base1/Fatores_Impacto_Salario.xlsx
+++ b/fia/20210706/base1/Fatores_Impacto_Salario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roghn\iCloudDrive\Documents\FIA\Aplicações de Estatística (2020)\1. Aulas\05. Regressão Logística\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210706\base1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D6A9B5-70B5-4E90-B484-8DFED5EC888A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6DEF04-E44D-4D5D-BA3C-8654A28EDE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="2" r:id="rId1"/>
@@ -14104,7 +14104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A116"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
